--- a/data/trans_dic/P70D_R_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R_2023-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01468779113315892</v>
+        <v>0.0159383734591422</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02512247764024734</v>
+        <v>0.02528378034670109</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0235344054642627</v>
+        <v>0.02355980925202925</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06105783854914235</v>
+        <v>0.06381782336013558</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06396614711449923</v>
+        <v>0.06489760645991291</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05282467135226367</v>
+        <v>0.05431964914108989</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.03137682949975209</v>
+        <v>0.0313768294997521</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.03150344240787274</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01467647741195205</v>
+        <v>0.01340120994245163</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01625669561563755</v>
+        <v>0.01647379207735262</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01980934371679788</v>
+        <v>0.01986431543172585</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06282965160817043</v>
+        <v>0.05983331176812291</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05389954922609016</v>
+        <v>0.05479261665552122</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04986917793521323</v>
+        <v>0.05023367570263148</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01052356236153324</v>
+        <v>0.009052350174082659</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03221806047802288</v>
+        <v>0.03195801714344134</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01992279692319565</v>
+        <v>0.01966826154719204</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05116228145690836</v>
+        <v>0.04936304355108984</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1262658402978155</v>
+        <v>0.1266033243663661</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05645048188776187</v>
+        <v>0.05846533783016884</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.06212907260350513</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05410413187563255</v>
+        <v>0.05410413187563256</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.0586402145871292</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04453565610725632</v>
+        <v>0.04606855083646332</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03722544771214755</v>
+        <v>0.03715122893874137</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04681330334297877</v>
+        <v>0.04597868183525084</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08381934095255972</v>
+        <v>0.08753961335633065</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07952768592817036</v>
+        <v>0.07550127851133918</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07447442937439305</v>
+        <v>0.07591416802908636</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.04544710844870617</v>
+        <v>0.04544710844870616</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1039629865553251</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.074744644129682</v>
+        <v>0.07474464412968201</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.025132907169085</v>
+        <v>0.02491759760566621</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07779206964483157</v>
+        <v>0.0762049825085741</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05773993199837871</v>
+        <v>0.05596381220544784</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07783247771760195</v>
+        <v>0.07308215146717709</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1421915067194411</v>
+        <v>0.1401569598512418</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09671682054159414</v>
+        <v>0.09419994771406592</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.0429772840292388</v>
+        <v>0.04297728402923881</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.05797487317644562</v>
+        <v>0.05797487317644563</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.04954450887528417</v>
+        <v>0.04954450887528415</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0343087869482707</v>
+        <v>0.0341157543833748</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.048547647762497</v>
+        <v>0.04876924173898409</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04273704237865776</v>
+        <v>0.04310394888991193</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05475803341906951</v>
+        <v>0.05484916713933806</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07128934703021909</v>
+        <v>0.07020446793678357</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05810493404184083</v>
+        <v>0.05773934046827653</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5488</v>
+        <v>5956</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8365</v>
+        <v>8419</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16630</v>
+        <v>16648</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22815</v>
+        <v>23846</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21298</v>
+        <v>21609</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>37327</v>
+        <v>38384</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4675</v>
+        <v>4269</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4408</v>
+        <v>4467</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11681</v>
+        <v>11714</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20013</v>
+        <v>19059</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14615</v>
+        <v>14857</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>29407</v>
+        <v>29622</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2823</v>
+        <v>2429</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2632</v>
+        <v>2611</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6973</v>
+        <v>6884</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13727</v>
+        <v>13244</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10315</v>
+        <v>10342</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19757</v>
+        <v>20462</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>27410</v>
+        <v>28353</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17622</v>
+        <v>17586</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>50972</v>
+        <v>50063</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>51588</v>
+        <v>53877</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>37646</v>
+        <v>35740</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>81090</v>
+        <v>82658</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7694</v>
+        <v>7628</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>23878</v>
+        <v>23391</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>35399</v>
+        <v>34310</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23826</v>
+        <v>22372</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>43646</v>
+        <v>43021</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>59295</v>
+        <v>57752</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>64572</v>
+        <v>64208</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>71177</v>
+        <v>71502</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>143092</v>
+        <v>144321</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>103059</v>
+        <v>103230</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>104519</v>
+        <v>102929</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>194547</v>
+        <v>193323</v>
       </c>
     </row>
     <row r="28">
